--- a/DataImport2023/Final2023/Socios/01_335_WORLD VISION.xlsx
+++ b/DataImport2023/Final2023/Socios/01_335_WORLD VISION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyectos\OSMOSYS_2023\DataImport2023\Final2023\Socios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A88391-7FD4-4302-BA4C-6A7739A9E2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BD990-E06C-436C-AF52-583B67FE58C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{110E4F3E-2CDB-4D40-BE54-CAD15C3E7A8D}"/>
   </bookViews>
@@ -36,24 +36,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={13B24874-F5E7-418C-8AB7-F41A4B250E51}</author>
-  </authors>
-  <commentList>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{13B24874-F5E7-418C-8AB7-F41A4B250E51}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    En los indicadores en amarrillo, se están contando solo beneficiarios nuevos o se repiten los beneficierios en varios trimestres?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
@@ -220,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,14 +222,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,12 +242,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -471,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -482,30 +452,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -533,8 +482,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,9 +521,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Sebastian Salazar Tapia" id="{9079949B-CDDA-440E-A909-D41D1917CF1B}" userId="S::salazart@unhcr.org::327a2a91-a97b-484e-9a8f-b48f9d1272d1" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,23 +819,15 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H7" dT="2023-01-19T16:13:18.91" personId="{9079949B-CDDA-440E-A909-D41D1917CF1B}" id="{13B24874-F5E7-418C-8AB7-F41A4B250E51}">
-    <text>En los indicadores en amarrillo, se están contando solo beneficiarios nuevos o se repiten los beneficierios en varios trimestres?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBDEE05-3F07-4DEA-81FF-9B9F2D88E677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBDEE05-3F07-4DEA-81FF-9B9F2D88E677}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,294 +845,294 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="16">
         <v>111203</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>128</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="12">
         <v>298</v>
       </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
         <f>SUM(D7:G7)</f>
         <v>426</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
         <v>316</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="12">
         <v>314</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="12">
         <v>310</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="12">
         <f t="shared" ref="H8:H14" si="0">SUM(D8:G8)</f>
         <v>940</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>199</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="12">
         <v>204</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="12">
         <v>204</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
         <v>166</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="12">
         <v>166</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="12">
         <v>168</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="12">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
         <v>200</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="12">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
         <v>36336</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="12">
         <v>36332</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="12">
         <v>36324</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="12">
         <f t="shared" si="0"/>
         <v>108992</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
         <v>395</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="12">
         <v>392</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="12">
         <v>391</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="12">
         <f t="shared" si="0"/>
         <v>1178</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="12">
         <v>55</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="12">
         <v>56</v>
       </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1193,6 +1150,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>